--- a/ReviewSchedule.xlsx
+++ b/ReviewSchedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanyonghao/IdeaProjects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanyonghao/IdeaProjects/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{1349EE76-1BE8-2F4A-800D-3E15DFAB56B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA0D5A1-A733-4547-9705-D243B751003E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35800" yWindow="-4200" windowWidth="27140" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,10 +18,19 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">List!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -140,7 +149,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0000"/>
+    <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -325,7 +334,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -335,13 +344,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -353,77 +362,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -757,20 +769,20 @@
   </sheetPr>
   <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="13" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="6" width="8.33203125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="14" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" style="20" customWidth="1"/>
+    <col min="5" max="6" width="8.33203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="13" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" style="19" customWidth="1"/>
     <col min="10" max="10" width="47.1640625" customWidth="1"/>
     <col min="11" max="11" width="2.6640625" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" customWidth="1"/>
@@ -778,22 +790,22 @@
   <sheetData>
     <row r="1" spans="1:19" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="27" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="3">
@@ -813,22 +825,22 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>44332</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="30" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="27" t="s">
         <v>3</v>
       </c>
       <c r="O2" s="3">
@@ -848,22 +860,22 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>44333</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>2</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>1</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="31"/>
-      <c r="N3" s="28" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="30"/>
+      <c r="N3" s="27" t="s">
         <v>4</v>
       </c>
       <c r="O3" s="3">
@@ -883,22 +895,22 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>44334</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>3</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>2</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="31"/>
-      <c r="N4" s="28" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="30"/>
+      <c r="N4" s="27" t="s">
         <v>5</v>
       </c>
       <c r="O4" s="3">
@@ -918,24 +930,24 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>44335</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>4</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>3</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>1</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="31"/>
-      <c r="N5" s="28" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="30"/>
+      <c r="N5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="O5" s="3">
@@ -955,24 +967,24 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>44336</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>5</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>4</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>2</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="31"/>
-      <c r="N6" s="28" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="30"/>
+      <c r="N6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="O6" s="3">
@@ -992,24 +1004,24 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>44337</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>6</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>5</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>3</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="31"/>
-      <c r="N7" s="28" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="30"/>
+      <c r="N7" s="27" t="s">
         <v>8</v>
       </c>
       <c r="O7" s="3">
@@ -1029,24 +1041,24 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>44338</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>7</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>6</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>4</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="31"/>
-      <c r="N8" s="28" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="30"/>
+      <c r="N8" s="27" t="s">
         <v>9</v>
       </c>
       <c r="O8" s="3">
@@ -1066,26 +1078,26 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>44339</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>8</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>7</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>5</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="31"/>
-      <c r="N9" s="28" t="s">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="30"/>
+      <c r="N9" s="27" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="3">
@@ -1105,26 +1117,26 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>44340</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>9</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>8</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>6</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>2</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="31"/>
-      <c r="N10" s="28" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="30"/>
+      <c r="N10" s="27" t="s">
         <v>11</v>
       </c>
       <c r="O10" s="3">
@@ -1144,26 +1156,26 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>44341</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>10</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>9</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>7</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>3</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="31"/>
-      <c r="N11" s="28" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="30"/>
+      <c r="N11" s="27" t="s">
         <v>12</v>
       </c>
       <c r="O11" s="3">
@@ -1183,26 +1195,26 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>44342</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>11</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>10</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>8</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>4</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="31"/>
-      <c r="N12" s="28" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="30"/>
+      <c r="N12" s="27" t="s">
         <v>13</v>
       </c>
       <c r="O12" s="3">
@@ -1222,28 +1234,28 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>44343</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>12</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>11</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>9</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>5</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>1</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="31"/>
-      <c r="N13" s="28" t="s">
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="30"/>
+      <c r="N13" s="27" t="s">
         <v>14</v>
       </c>
       <c r="O13" s="3">
@@ -1263,28 +1275,28 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>44344</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <v>13</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>12</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>10</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>6</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>2</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="31"/>
-      <c r="N14" s="28" t="s">
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="30"/>
+      <c r="N14" s="27" t="s">
         <v>15</v>
       </c>
       <c r="O14" s="3">
@@ -1304,28 +1316,28 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>44345</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>14</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <v>13</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>11</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>7</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>3</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="31"/>
-      <c r="N15" s="28" t="s">
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="30"/>
+      <c r="N15" s="27" t="s">
         <v>16</v>
       </c>
       <c r="O15" s="4">
@@ -1345,28 +1357,28 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>44346</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>15</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <v>14</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>12</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>8</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <v>4</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="31"/>
-      <c r="N16" s="28" t="s">
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="30"/>
+      <c r="N16" s="27" t="s">
         <v>17</v>
       </c>
       <c r="O16" s="3">
@@ -1386,30 +1398,30 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>44347</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <v>16</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <v>15</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>13</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>9</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>5</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>1</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="31"/>
-      <c r="N17" s="28" t="s">
+      <c r="I17" s="12"/>
+      <c r="J17" s="30"/>
+      <c r="N17" s="27" t="s">
         <v>18</v>
       </c>
       <c r="O17" s="3">
@@ -1429,30 +1441,30 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>44348</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>17</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <v>16</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>14</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>10</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>6</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <v>2</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="31"/>
-      <c r="N18" s="28" t="s">
+      <c r="I18" s="12"/>
+      <c r="J18" s="30"/>
+      <c r="N18" s="27" t="s">
         <v>19</v>
       </c>
       <c r="O18" s="3">
@@ -1472,30 +1484,30 @@
       </c>
     </row>
     <row r="19" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>44349</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="21">
         <v>18</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="20">
         <v>17</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>15</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>11</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <v>7</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>3</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="31"/>
-      <c r="N19" s="28" t="s">
+      <c r="I19" s="12"/>
+      <c r="J19" s="30"/>
+      <c r="N19" s="27" t="s">
         <v>20</v>
       </c>
       <c r="O19" s="4">
@@ -1515,30 +1527,30 @@
       </c>
     </row>
     <row r="20" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>44350</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="21">
         <v>19</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="20">
         <v>18</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>16</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>12</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <v>8</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <v>4</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="31"/>
-      <c r="N20" s="28" t="s">
+      <c r="I20" s="12"/>
+      <c r="J20" s="30"/>
+      <c r="N20" s="27" t="s">
         <v>21</v>
       </c>
       <c r="O20" s="3">
@@ -1558,32 +1570,32 @@
       </c>
     </row>
     <row r="21" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>44351</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>20</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="20">
         <v>19</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>17</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <v>13</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <v>9</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <v>5</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="14">
         <v>1</v>
       </c>
-      <c r="J21" s="31"/>
-      <c r="N21" s="28" t="s">
+      <c r="J21" s="30"/>
+      <c r="N21" s="27" t="s">
         <v>22</v>
       </c>
       <c r="O21" s="3">
@@ -1603,32 +1615,32 @@
       </c>
     </row>
     <row r="22" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>44352</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <v>21</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="20">
         <v>20</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>18</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>14</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <v>10</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="11">
         <v>6</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="14">
         <v>2</v>
       </c>
-      <c r="J22" s="31"/>
-      <c r="N22" s="28" t="s">
+      <c r="J22" s="30"/>
+      <c r="N22" s="27" t="s">
         <v>23</v>
       </c>
       <c r="O22" s="3">
@@ -1648,32 +1660,32 @@
       </c>
     </row>
     <row r="23" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>44353</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <v>22</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="20">
         <v>21</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>19</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <v>15</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="11">
         <v>11</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="11">
         <v>7</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="14">
         <v>3</v>
       </c>
-      <c r="J23" s="31"/>
-      <c r="N23" s="28" t="s">
+      <c r="J23" s="30"/>
+      <c r="N23" s="27" t="s">
         <v>24</v>
       </c>
       <c r="O23" s="5">
@@ -1693,32 +1705,32 @@
       </c>
     </row>
     <row r="24" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>44354</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="21">
         <v>23</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="20">
         <v>22</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="11">
         <v>20</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <v>16</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <v>12</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="11">
         <v>8</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="14">
         <v>4</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="N24" s="28" t="s">
+      <c r="J24" s="30"/>
+      <c r="N24" s="27" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="5">
@@ -1738,32 +1750,32 @@
       </c>
     </row>
     <row r="25" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>44355</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="21">
         <v>24</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="20">
         <v>23</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="11">
         <v>21</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <v>17</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <v>13</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="11">
         <v>9</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="14">
         <v>5</v>
       </c>
-      <c r="J25" s="31"/>
-      <c r="N25" s="28" t="s">
+      <c r="J25" s="30"/>
+      <c r="N25" s="27" t="s">
         <v>26</v>
       </c>
       <c r="O25" s="5">
@@ -1783,32 +1795,32 @@
       </c>
     </row>
     <row r="26" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>44356</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="21">
         <v>25</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="20">
         <v>24</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="11">
         <v>22</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="11">
         <v>18</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="11">
         <v>14</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="11">
         <v>10</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="14">
         <v>6</v>
       </c>
-      <c r="J26" s="31"/>
-      <c r="N26" s="28" t="s">
+      <c r="J26" s="30"/>
+      <c r="N26" s="27" t="s">
         <v>27</v>
       </c>
       <c r="O26" s="3">
@@ -1828,32 +1840,32 @@
       </c>
     </row>
     <row r="27" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>44357</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="21">
         <v>26</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="20">
         <v>25</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="11">
         <v>23</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="11">
         <v>19</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="11">
         <v>15</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="11">
         <v>11</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="14">
         <v>7</v>
       </c>
-      <c r="J27" s="31"/>
-      <c r="N27" s="28" t="s">
+      <c r="J27" s="30"/>
+      <c r="N27" s="27" t="s">
         <v>28</v>
       </c>
       <c r="O27" s="5">
@@ -1873,32 +1885,32 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>44358</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="21">
         <v>27</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="20">
         <v>26</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <v>24</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <v>20</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="11">
         <v>16</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <v>12</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="14">
         <v>8</v>
       </c>
-      <c r="J28" s="31"/>
-      <c r="N28" s="28" t="s">
+      <c r="J28" s="30"/>
+      <c r="N28" s="27" t="s">
         <v>29</v>
       </c>
       <c r="O28" s="5">
@@ -1918,32 +1930,32 @@
       </c>
     </row>
     <row r="29" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>44359</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="21">
         <v>28</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="20">
         <v>27</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="11">
         <v>25</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="11">
         <v>21</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="11">
         <v>17</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="11">
         <v>13</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="14">
         <v>9</v>
       </c>
-      <c r="J29" s="31"/>
-      <c r="N29" s="28" t="s">
+      <c r="J29" s="30"/>
+      <c r="N29" s="27" t="s">
         <v>30</v>
       </c>
       <c r="O29" s="5">
@@ -1963,32 +1975,32 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>44360</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="21">
         <v>29</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="20">
         <v>28</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="11">
         <v>26</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="11">
         <v>22</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="11">
         <v>18</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="11">
         <v>14</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="14">
         <v>10</v>
       </c>
-      <c r="J30" s="31"/>
-      <c r="N30" s="28" t="s">
+      <c r="J30" s="30"/>
+      <c r="N30" s="27" t="s">
         <v>31</v>
       </c>
       <c r="O30" s="5">
@@ -2008,590 +2020,749 @@
       </c>
     </row>
     <row r="31" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>44361</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="21">
         <v>30</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="20">
         <v>29</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="11">
         <v>27</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="11">
         <v>23</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="11">
         <v>19</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="11">
         <v>15</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="14">
         <v>11</v>
       </c>
-      <c r="J31" s="31"/>
-      <c r="N31" s="28" t="s">
+      <c r="J31" s="30"/>
+      <c r="N31" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="O31" s="2"/>
-      <c r="P31" s="3"/>
+      <c r="O31" s="3">
+        <v>287</v>
+      </c>
+      <c r="P31" s="3">
+        <v>719</v>
+      </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
     <row r="32" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>44362</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="21">
         <v>31</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="20">
         <v>30</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="11">
         <v>28</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="11">
         <v>24</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="11">
         <v>20</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="11">
         <v>16</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="14">
         <v>12</v>
       </c>
-      <c r="J32" s="31"/>
-    </row>
-    <row r="33" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="10">
+      <c r="J32" s="30"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+    </row>
+    <row r="33" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="9">
         <v>44363</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="21">
+      <c r="C33" s="14"/>
+      <c r="D33" s="20">
         <v>31</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="11">
         <v>29</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="11">
         <v>25</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="11">
         <v>21</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="11">
         <v>17</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="14">
         <v>13</v>
       </c>
-      <c r="J33" s="31"/>
-    </row>
-    <row r="34" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="10">
+      <c r="J33" s="30"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+    </row>
+    <row r="34" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="9">
         <v>44364</v>
       </c>
-      <c r="C34" s="13"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="12">
+      <c r="E34" s="11">
         <v>30</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="11">
         <v>26</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="11">
         <v>22</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="11">
         <v>18</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="14">
         <v>14</v>
       </c>
-      <c r="J34" s="31"/>
-    </row>
-    <row r="35" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="10">
+      <c r="J34" s="30"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+    </row>
+    <row r="35" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="9">
         <v>44365</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25">
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24">
         <v>31</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="24">
         <v>27</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="24">
         <v>23</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="24">
         <v>19</v>
       </c>
-      <c r="I35" s="26">
+      <c r="I35" s="25">
         <v>15</v>
       </c>
-      <c r="J35" s="32"/>
-    </row>
-    <row r="36" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="10">
+      <c r="J35" s="31"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+    </row>
+    <row r="36" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="9">
         <v>44366</v>
       </c>
-      <c r="C36" s="27"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="12">
+      <c r="E36" s="26"/>
+      <c r="F36" s="11">
         <v>28</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="11">
         <v>24</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="11">
         <v>20</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I36" s="14">
         <v>16</v>
       </c>
-      <c r="J36" s="31"/>
+      <c r="J36" s="30"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-    </row>
-    <row r="37" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="10">
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+    </row>
+    <row r="37" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="9">
         <v>44367</v>
       </c>
-      <c r="C37" s="27"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="12">
+      <c r="E37" s="26"/>
+      <c r="F37" s="11">
         <v>29</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="11">
         <v>25</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <v>21</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I37" s="14">
         <v>17</v>
       </c>
-      <c r="J37" s="31"/>
+      <c r="J37" s="30"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-    </row>
-    <row r="38" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="10">
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+    </row>
+    <row r="38" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="9">
         <v>44368</v>
       </c>
-      <c r="C38" s="27"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="12">
+      <c r="E38" s="26"/>
+      <c r="F38" s="11">
         <v>30</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="11">
         <v>26</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="11">
         <v>22</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I38" s="14">
         <v>18</v>
       </c>
-      <c r="J38" s="31"/>
+      <c r="J38" s="30"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-    </row>
-    <row r="39" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="10">
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+    </row>
+    <row r="39" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="9">
         <v>44369</v>
       </c>
-      <c r="C39" s="27"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="12">
+      <c r="E39" s="26"/>
+      <c r="F39" s="11">
         <v>31</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="11">
         <v>27</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="11">
         <v>23</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I39" s="14">
         <v>19</v>
       </c>
-      <c r="J39" s="31"/>
+      <c r="J39" s="30"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-    </row>
-    <row r="40" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="10">
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+    </row>
+    <row r="40" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="9">
         <v>44370</v>
       </c>
-      <c r="C40" s="27"/>
+      <c r="C40" s="26"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="12">
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="11">
         <v>28</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="11">
         <v>24</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="14">
         <v>20</v>
       </c>
-      <c r="J40" s="31"/>
+      <c r="J40" s="30"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-    </row>
-    <row r="41" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="10">
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+    </row>
+    <row r="41" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="9">
         <v>44371</v>
       </c>
-      <c r="C41" s="27"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="12">
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="11">
         <v>29</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="11">
         <v>25</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I41" s="14">
         <v>21</v>
       </c>
-      <c r="J41" s="31"/>
+      <c r="J41" s="30"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-    </row>
-    <row r="42" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="10">
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+    </row>
+    <row r="42" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="9">
         <v>44372</v>
       </c>
-      <c r="C42" s="27"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="12">
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="11">
         <v>30</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="11">
         <v>26</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="14">
         <v>22</v>
       </c>
-      <c r="J42" s="31"/>
+      <c r="J42" s="30"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-    </row>
-    <row r="43" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="10">
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+    </row>
+    <row r="43" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="9">
         <v>44373</v>
       </c>
-      <c r="C43" s="27"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="12">
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="11">
         <v>31</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="11">
         <v>27</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="14">
         <v>23</v>
       </c>
-      <c r="J43" s="31"/>
+      <c r="J43" s="30"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-    </row>
-    <row r="44" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="10">
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+    </row>
+    <row r="44" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="9">
         <v>44374</v>
       </c>
-      <c r="C44" s="27"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="12">
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="11">
         <v>28</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I44" s="14">
         <v>24</v>
       </c>
-      <c r="J44" s="31"/>
+      <c r="J44" s="30"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
-    </row>
-    <row r="45" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="10">
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+    </row>
+    <row r="45" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="9">
         <v>44375</v>
       </c>
-      <c r="C45" s="27"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="12">
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="11">
         <v>29</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="14">
         <v>25</v>
       </c>
-      <c r="J45" s="31"/>
+      <c r="J45" s="30"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-    </row>
-    <row r="46" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="10">
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
+    </row>
+    <row r="46" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="9">
         <v>44376</v>
       </c>
-      <c r="C46" s="27"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="12">
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="11">
         <v>30</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I46" s="14">
         <v>26</v>
       </c>
-      <c r="J46" s="31"/>
+      <c r="J46" s="30"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
-    </row>
-    <row r="47" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="10">
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="33"/>
+    </row>
+    <row r="47" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="9">
         <v>44377</v>
       </c>
-      <c r="C47" s="27"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="12">
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="11">
         <v>31</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I47" s="14">
         <v>27</v>
       </c>
-      <c r="J47" s="31"/>
+      <c r="J47" s="30"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-    </row>
-    <row r="48" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="10">
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+    </row>
+    <row r="48" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="9">
         <v>44378</v>
       </c>
-      <c r="C48" s="27"/>
+      <c r="C48" s="26"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="12">
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="11">
         <v>32</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I48" s="14">
         <v>28</v>
       </c>
-      <c r="J48" s="31"/>
+      <c r="J48" s="30"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-    </row>
-    <row r="49" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="10">
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="33"/>
+    </row>
+    <row r="49" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="9">
         <v>44379</v>
       </c>
-      <c r="C49" s="27"/>
+      <c r="C49" s="26"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="15">
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="14">
         <v>29</v>
       </c>
-      <c r="J49" s="31"/>
+      <c r="J49" s="30"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
-    </row>
-    <row r="50" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="10">
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+    </row>
+    <row r="50" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="9">
         <v>44380</v>
       </c>
-      <c r="C50" s="27"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="15">
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="14">
         <v>30</v>
       </c>
-      <c r="J50" s="31"/>
+      <c r="J50" s="30"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-    </row>
-    <row r="51" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="10">
+      <c r="O50" s="33"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="33"/>
+    </row>
+    <row r="51" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="9">
         <v>44381</v>
       </c>
-      <c r="C51" s="27"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="15">
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="14">
         <v>31</v>
       </c>
-      <c r="J51" s="31"/>
+      <c r="J51" s="30"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
-    </row>
-    <row r="52" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="10">
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+    </row>
+    <row r="52" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="9">
         <v>44382</v>
       </c>
-      <c r="C52" s="27"/>
+      <c r="C52" s="26"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="15">
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="14">
         <v>32</v>
       </c>
-      <c r="J52" s="31"/>
+      <c r="J52" s="30"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-    </row>
-    <row r="53" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="10">
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+    </row>
+    <row r="53" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="9">
         <v>44383</v>
       </c>
-      <c r="C53" s="27"/>
+      <c r="C53" s="26"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="31"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="30"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
-    </row>
-    <row r="54" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="10">
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+    </row>
+    <row r="54" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="9">
         <v>44384</v>
       </c>
-      <c r="C54" s="27"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="31"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="30"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-    </row>
-    <row r="55" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="10">
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+    </row>
+    <row r="55" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="9">
         <v>44385</v>
       </c>
-      <c r="C55" s="27"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="31"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="30"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
-    </row>
-    <row r="56" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="10">
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+    </row>
+    <row r="56" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="9">
         <v>44386</v>
       </c>
-      <c r="C56" s="27"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="31"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="30"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
-    </row>
-    <row r="57" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="10">
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+    </row>
+    <row r="57" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="9">
         <v>44387</v>
       </c>
-      <c r="C57" s="27"/>
+      <c r="C57" s="26"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="31"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="30"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
-    </row>
-    <row r="58" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="10">
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+    </row>
+    <row r="58" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="9">
         <v>44388</v>
       </c>
-      <c r="C58" s="27"/>
+      <c r="C58" s="26"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="31"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="30"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
-    </row>
-    <row r="59" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J59" s="29"/>
-    </row>
-    <row r="60" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J60" s="29"/>
-    </row>
-    <row r="61" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J61" s="29"/>
-    </row>
-    <row r="62" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J62" s="29"/>
-    </row>
-    <row r="63" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J63" s="29"/>
-    </row>
-    <row r="64" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J64" s="29"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+    </row>
+    <row r="59" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J59" s="28"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+    </row>
+    <row r="60" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J60" s="28"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="33"/>
+    </row>
+    <row r="61" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J61" s="28"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
+    </row>
+    <row r="62" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J62" s="28"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33"/>
+      <c r="S62" s="33"/>
+    </row>
+    <row r="63" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J63" s="28"/>
+    </row>
+    <row r="64" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J64" s="28"/>
     </row>
     <row r="65" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J65" s="29"/>
+      <c r="J65" s="28"/>
     </row>
     <row r="66" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J66" s="29"/>
+      <c r="J66" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ReviewSchedule.xlsx
+++ b/ReviewSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanyonghao/IdeaProjects/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA0D5A1-A733-4547-9705-D243B751003E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377ED6D5-9AB8-9A4A-8055-05B4B02BF9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35800" yWindow="-4200" windowWidth="27140" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>DATE</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>ITEMS</t>
-  </si>
-  <si>
-    <t>0001-Solution2: One pass同时实现构建HashMap和查询</t>
   </si>
 </sst>
 </file>
@@ -431,10 +428,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -769,8 +766,8 @@
   </sheetPr>
   <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -783,8 +780,9 @@
     <col min="7" max="7" width="7.83203125" style="13" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="13" customWidth="1"/>
     <col min="9" max="9" width="6.83203125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="47.1640625" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -793,15 +791,15 @@
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
@@ -826,7 +824,7 @@
     </row>
     <row r="2" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="9">
-        <v>44332</v>
+        <v>44348</v>
       </c>
       <c r="C2" s="15">
         <v>1</v>
@@ -837,9 +835,7 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="29" t="s">
-        <v>34</v>
-      </c>
+      <c r="J2" s="29"/>
       <c r="N2" s="27" t="s">
         <v>3</v>
       </c>
@@ -861,7 +857,7 @@
     </row>
     <row r="3" spans="1:19" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9">
-        <v>44333</v>
+        <v>44349</v>
       </c>
       <c r="C3" s="14">
         <v>2</v>
@@ -896,7 +892,7 @@
     </row>
     <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9">
-        <v>44334</v>
+        <v>44350</v>
       </c>
       <c r="C4" s="21">
         <v>3</v>
@@ -931,7 +927,7 @@
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9">
-        <v>44335</v>
+        <v>44351</v>
       </c>
       <c r="C5" s="21">
         <v>4</v>
@@ -968,7 +964,7 @@
     </row>
     <row r="6" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9">
-        <v>44336</v>
+        <v>44352</v>
       </c>
       <c r="C6" s="21">
         <v>5</v>
@@ -1005,7 +1001,7 @@
     </row>
     <row r="7" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
-        <v>44337</v>
+        <v>44353</v>
       </c>
       <c r="C7" s="21">
         <v>6</v>
@@ -1042,7 +1038,7 @@
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
-        <v>44338</v>
+        <v>44354</v>
       </c>
       <c r="C8" s="21">
         <v>7</v>
@@ -1079,7 +1075,7 @@
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9">
-        <v>44339</v>
+        <v>44355</v>
       </c>
       <c r="C9" s="21">
         <v>8</v>
@@ -1118,7 +1114,7 @@
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9">
-        <v>44340</v>
+        <v>44356</v>
       </c>
       <c r="C10" s="21">
         <v>9</v>
@@ -1157,7 +1153,7 @@
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9">
-        <v>44341</v>
+        <v>44357</v>
       </c>
       <c r="C11" s="21">
         <v>10</v>
@@ -1196,7 +1192,7 @@
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9">
-        <v>44342</v>
+        <v>44358</v>
       </c>
       <c r="C12" s="21">
         <v>11</v>
@@ -1235,7 +1231,7 @@
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
-        <v>44343</v>
+        <v>44359</v>
       </c>
       <c r="C13" s="21">
         <v>12</v>
@@ -1276,7 +1272,7 @@
     </row>
     <row r="14" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9">
-        <v>44344</v>
+        <v>44360</v>
       </c>
       <c r="C14" s="21">
         <v>13</v>
@@ -1317,7 +1313,7 @@
     </row>
     <row r="15" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9">
-        <v>44345</v>
+        <v>44361</v>
       </c>
       <c r="C15" s="21">
         <v>14</v>
@@ -1358,7 +1354,7 @@
     </row>
     <row r="16" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9">
-        <v>44346</v>
+        <v>44362</v>
       </c>
       <c r="C16" s="21">
         <v>15</v>
@@ -1399,7 +1395,7 @@
     </row>
     <row r="17" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9">
-        <v>44347</v>
+        <v>44363</v>
       </c>
       <c r="C17" s="21">
         <v>16</v>
@@ -1442,7 +1438,7 @@
     </row>
     <row r="18" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9">
-        <v>44348</v>
+        <v>44364</v>
       </c>
       <c r="C18" s="21">
         <v>17</v>
@@ -1485,7 +1481,7 @@
     </row>
     <row r="19" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9">
-        <v>44349</v>
+        <v>44365</v>
       </c>
       <c r="C19" s="21">
         <v>18</v>
@@ -1528,7 +1524,7 @@
     </row>
     <row r="20" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9">
-        <v>44350</v>
+        <v>44366</v>
       </c>
       <c r="C20" s="21">
         <v>19</v>
@@ -1571,7 +1567,7 @@
     </row>
     <row r="21" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="9">
-        <v>44351</v>
+        <v>44367</v>
       </c>
       <c r="C21" s="21">
         <v>20</v>
@@ -1616,7 +1612,7 @@
     </row>
     <row r="22" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="9">
-        <v>44352</v>
+        <v>44368</v>
       </c>
       <c r="C22" s="21">
         <v>21</v>
@@ -1661,7 +1657,7 @@
     </row>
     <row r="23" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="9">
-        <v>44353</v>
+        <v>44369</v>
       </c>
       <c r="C23" s="21">
         <v>22</v>
@@ -1706,7 +1702,7 @@
     </row>
     <row r="24" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="9">
-        <v>44354</v>
+        <v>44370</v>
       </c>
       <c r="C24" s="21">
         <v>23</v>
@@ -1751,7 +1747,7 @@
     </row>
     <row r="25" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="9">
-        <v>44355</v>
+        <v>44371</v>
       </c>
       <c r="C25" s="21">
         <v>24</v>
@@ -1796,7 +1792,7 @@
     </row>
     <row r="26" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="9">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="C26" s="21">
         <v>25</v>
@@ -1841,7 +1837,7 @@
     </row>
     <row r="27" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="9">
-        <v>44357</v>
+        <v>44373</v>
       </c>
       <c r="C27" s="21">
         <v>26</v>
@@ -1886,7 +1882,7 @@
     </row>
     <row r="28" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="9">
-        <v>44358</v>
+        <v>44374</v>
       </c>
       <c r="C28" s="21">
         <v>27</v>
@@ -1931,7 +1927,7 @@
     </row>
     <row r="29" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="9">
-        <v>44359</v>
+        <v>44375</v>
       </c>
       <c r="C29" s="21">
         <v>28</v>
@@ -1976,7 +1972,7 @@
     </row>
     <row r="30" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="9">
-        <v>44360</v>
+        <v>44376</v>
       </c>
       <c r="C30" s="21">
         <v>29</v>
@@ -2021,7 +2017,7 @@
     </row>
     <row r="31" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="9">
-        <v>44361</v>
+        <v>44377</v>
       </c>
       <c r="C31" s="21">
         <v>30</v>
@@ -2054,13 +2050,15 @@
       <c r="P31" s="3">
         <v>719</v>
       </c>
-      <c r="Q31" s="3"/>
+      <c r="Q31" s="3">
+        <v>410</v>
+      </c>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
     <row r="32" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="9">
-        <v>44362</v>
+        <v>44378</v>
       </c>
       <c r="C32" s="21">
         <v>31</v>
@@ -2084,15 +2082,15 @@
         <v>12</v>
       </c>
       <c r="J32" s="30"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
     </row>
     <row r="33" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="9">
-        <v>44363</v>
+        <v>44379</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="20">
@@ -2114,15 +2112,15 @@
         <v>13</v>
       </c>
       <c r="J33" s="30"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
     </row>
     <row r="34" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="9">
-        <v>44364</v>
+        <v>44380</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="7"/>
@@ -2142,15 +2140,15 @@
         <v>14</v>
       </c>
       <c r="J34" s="30"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
     </row>
     <row r="35" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="9">
-        <v>44365</v>
+        <v>44381</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="23"/>
@@ -2170,15 +2168,15 @@
         <v>15</v>
       </c>
       <c r="J35" s="31"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
     </row>
     <row r="36" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="9">
-        <v>44366</v>
+        <v>44382</v>
       </c>
       <c r="C36" s="26"/>
       <c r="D36" s="2"/>
@@ -2198,15 +2196,15 @@
       <c r="J36" s="30"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
     </row>
     <row r="37" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="9">
-        <v>44367</v>
+        <v>44383</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="2"/>
@@ -2226,15 +2224,15 @@
       <c r="J37" s="30"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
     </row>
     <row r="38" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="9">
-        <v>44368</v>
+        <v>44384</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="2"/>
@@ -2254,15 +2252,15 @@
       <c r="J38" s="30"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
     </row>
     <row r="39" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="9">
-        <v>44369</v>
+        <v>44385</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="2"/>
@@ -2282,15 +2280,15 @@
       <c r="J39" s="30"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
     </row>
     <row r="40" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="9">
-        <v>44370</v>
+        <v>44386</v>
       </c>
       <c r="C40" s="26"/>
       <c r="D40" s="2"/>
@@ -2308,15 +2306,15 @@
       <c r="J40" s="30"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
     </row>
     <row r="41" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="9">
-        <v>44371</v>
+        <v>44387</v>
       </c>
       <c r="C41" s="26"/>
       <c r="D41" s="2"/>
@@ -2334,15 +2332,15 @@
       <c r="J41" s="30"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
     </row>
     <row r="42" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="9">
-        <v>44372</v>
+        <v>44388</v>
       </c>
       <c r="C42" s="26"/>
       <c r="D42" s="2"/>
@@ -2360,15 +2358,15 @@
       <c r="J42" s="30"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
     </row>
     <row r="43" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="9">
-        <v>44373</v>
+        <v>44389</v>
       </c>
       <c r="C43" s="26"/>
       <c r="D43" s="2"/>
@@ -2386,15 +2384,15 @@
       <c r="J43" s="30"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="33"/>
-      <c r="S43" s="33"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
     </row>
     <row r="44" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="9">
-        <v>44374</v>
+        <v>44390</v>
       </c>
       <c r="C44" s="26"/>
       <c r="D44" s="2"/>
@@ -2410,15 +2408,15 @@
       <c r="J44" s="30"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="33"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
     </row>
     <row r="45" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="9">
-        <v>44375</v>
+        <v>44391</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="2"/>
@@ -2434,15 +2432,15 @@
       <c r="J45" s="30"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
     </row>
     <row r="46" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="9">
-        <v>44376</v>
+        <v>44392</v>
       </c>
       <c r="C46" s="26"/>
       <c r="D46" s="2"/>
@@ -2458,15 +2456,15 @@
       <c r="J46" s="30"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
     </row>
     <row r="47" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="9">
-        <v>44377</v>
+        <v>44393</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="2"/>
@@ -2482,15 +2480,15 @@
       <c r="J47" s="30"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="33"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
     </row>
     <row r="48" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="9">
-        <v>44378</v>
+        <v>44394</v>
       </c>
       <c r="C48" s="26"/>
       <c r="D48" s="2"/>
@@ -2506,15 +2504,15 @@
       <c r="J48" s="30"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="33"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
     </row>
     <row r="49" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="9">
-        <v>44379</v>
+        <v>44395</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="2"/>
@@ -2528,15 +2526,15 @@
       <c r="J49" s="30"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="33"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
     </row>
     <row r="50" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="9">
-        <v>44380</v>
+        <v>44396</v>
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="2"/>
@@ -2550,15 +2548,15 @@
       <c r="J50" s="30"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
-      <c r="R50" s="33"/>
-      <c r="S50" s="33"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
     </row>
     <row r="51" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="9">
-        <v>44381</v>
+        <v>44397</v>
       </c>
       <c r="C51" s="26"/>
       <c r="D51" s="2"/>
@@ -2572,15 +2570,15 @@
       <c r="J51" s="30"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="33"/>
-      <c r="S51" s="33"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
     </row>
     <row r="52" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="9">
-        <v>44382</v>
+        <v>44398</v>
       </c>
       <c r="C52" s="26"/>
       <c r="D52" s="2"/>
@@ -2594,15 +2592,15 @@
       <c r="J52" s="30"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
     </row>
     <row r="53" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="9">
-        <v>44383</v>
+        <v>44399</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="2"/>
@@ -2614,15 +2612,15 @@
       <c r="J53" s="30"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
     </row>
     <row r="54" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="9">
-        <v>44384</v>
+        <v>44400</v>
       </c>
       <c r="C54" s="26"/>
       <c r="D54" s="2"/>
@@ -2634,15 +2632,15 @@
       <c r="J54" s="30"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
     </row>
     <row r="55" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="9">
-        <v>44385</v>
+        <v>44401</v>
       </c>
       <c r="C55" s="26"/>
       <c r="D55" s="2"/>
@@ -2654,15 +2652,15 @@
       <c r="J55" s="30"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
     </row>
     <row r="56" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="9">
-        <v>44386</v>
+        <v>44402</v>
       </c>
       <c r="C56" s="26"/>
       <c r="D56" s="2"/>
@@ -2674,15 +2672,15 @@
       <c r="J56" s="30"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="33"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
     </row>
     <row r="57" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="9">
-        <v>44387</v>
+        <v>44403</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="2"/>
@@ -2694,15 +2692,15 @@
       <c r="J57" s="30"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="32"/>
     </row>
     <row r="58" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="9">
-        <v>44388</v>
+        <v>44404</v>
       </c>
       <c r="C58" s="26"/>
       <c r="D58" s="2"/>
@@ -2714,43 +2712,43 @@
       <c r="J58" s="30"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
     </row>
     <row r="59" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J59" s="28"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="32"/>
     </row>
     <row r="60" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J60" s="28"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="33"/>
-      <c r="S60" s="33"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="32"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="32"/>
     </row>
     <row r="61" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J61" s="28"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
     </row>
     <row r="62" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J62" s="28"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="33"/>
-      <c r="S62" s="33"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
     </row>
     <row r="63" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J63" s="28"/>

--- a/ReviewSchedule.xlsx
+++ b/ReviewSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanyonghao/IdeaProjects/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377ED6D5-9AB8-9A4A-8055-05B4B02BF9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E610348-7C1B-2B43-83F4-61DCFFA54184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35800" yWindow="-4200" windowWidth="27140" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,8 +766,8 @@
   </sheetPr>
   <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2053,7 +2053,9 @@
       <c r="Q31" s="3">
         <v>410</v>
       </c>
-      <c r="R31" s="3"/>
+      <c r="R31" s="3">
+        <v>285</v>
+      </c>
       <c r="S31" s="3"/>
     </row>
     <row r="32" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">

--- a/ReviewSchedule.xlsx
+++ b/ReviewSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanyonghao/IdeaProjects/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E610348-7C1B-2B43-83F4-61DCFFA54184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199455B7-C540-6040-8B0F-A9FE81C3CF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35800" yWindow="-4200" windowWidth="27140" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>DATE</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>ITEMS</t>
+  </si>
+  <si>
+    <t>Chapter 32</t>
+  </si>
+  <si>
+    <t>Chapter 33</t>
+  </si>
+  <si>
+    <t>Chapter 34</t>
+  </si>
+  <si>
+    <t>Chapter 35</t>
   </si>
 </sst>
 </file>
@@ -766,8 +778,8 @@
   </sheetPr>
   <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2056,7 +2068,9 @@
       <c r="R31" s="3">
         <v>285</v>
       </c>
-      <c r="S31" s="3"/>
+      <c r="S31" s="3">
+        <v>173</v>
+      </c>
     </row>
     <row r="32" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="9">
@@ -2084,11 +2098,18 @@
         <v>12</v>
       </c>
       <c r="J32" s="30"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
+      <c r="N32" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="O32" s="3">
+        <v>709</v>
+      </c>
+      <c r="P32" s="3">
+        <v>235</v>
+      </c>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
     </row>
     <row r="33" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="9">
@@ -2114,11 +2135,14 @@
         <v>13</v>
       </c>
       <c r="J33" s="30"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
+      <c r="N33" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
     </row>
     <row r="34" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="9">
@@ -2142,11 +2166,14 @@
         <v>14</v>
       </c>
       <c r="J34" s="30"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
+      <c r="N34" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
     </row>
     <row r="35" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="9">
@@ -2170,11 +2197,14 @@
         <v>15</v>
       </c>
       <c r="J35" s="31"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
+      <c r="N35" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
     </row>
     <row r="36" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="9">

--- a/ReviewSchedule.xlsx
+++ b/ReviewSchedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanyonghao/IdeaProjects/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199455B7-C540-6040-8B0F-A9FE81C3CF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DEC76D-E967-E449-8BCB-E0B440D4E591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35800" yWindow="-4200" windowWidth="27140" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -778,8 +778,8 @@
   </sheetPr>
   <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2107,7 +2107,9 @@
       <c r="P32" s="3">
         <v>235</v>
       </c>
-      <c r="Q32" s="3"/>
+      <c r="Q32" s="3">
+        <v>110</v>
+      </c>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>

--- a/ReviewSchedule.xlsx
+++ b/ReviewSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanyonghao/IdeaProjects/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DEC76D-E967-E449-8BCB-E0B440D4E591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DAFB46-A53B-E143-B554-0FD72566D28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35800" yWindow="-4200" windowWidth="27140" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29120" yWindow="-680" windowWidth="24740" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>DATE</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Chapter 35</t>
+  </si>
+  <si>
+    <t>ß</t>
   </si>
 </sst>
 </file>
@@ -779,7 +782,7 @@
   <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1975,8 +1978,8 @@
       <c r="Q29" s="5">
         <v>34</v>
       </c>
-      <c r="R29" s="5">
-        <v>658</v>
+      <c r="R29" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="S29" s="5">
         <v>270</v>
@@ -2110,8 +2113,12 @@
       <c r="Q32" s="3">
         <v>110</v>
       </c>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
+      <c r="R32" s="3">
+        <v>108</v>
+      </c>
+      <c r="S32" s="3">
+        <v>724</v>
+      </c>
     </row>
     <row r="33" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="9">
@@ -2140,11 +2147,21 @@
       <c r="N33" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
+      <c r="O33" s="3">
+        <v>747</v>
+      </c>
+      <c r="P33" s="3">
+        <v>66</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>67</v>
+      </c>
+      <c r="R33" s="3">
+        <v>369</v>
+      </c>
+      <c r="S33" s="3">
+        <v>137</v>
+      </c>
     </row>
     <row r="34" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="9">

--- a/ReviewSchedule.xlsx
+++ b/ReviewSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanyonghao/IdeaProjects/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DAFB46-A53B-E143-B554-0FD72566D28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA9B1AF-4284-9241-BE33-312D0BDAF80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29120" yWindow="-680" windowWidth="24740" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="1400" windowWidth="24740" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>DATE</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>Chapter 35</t>
-  </si>
-  <si>
-    <t>ß</t>
   </si>
 </sst>
 </file>
@@ -782,7 +779,7 @@
   <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1978,8 +1975,8 @@
       <c r="Q29" s="5">
         <v>34</v>
       </c>
-      <c r="R29" s="5" t="s">
-        <v>38</v>
+      <c r="R29" s="5">
+        <v>658</v>
       </c>
       <c r="S29" s="5">
         <v>270</v>
@@ -2188,8 +2185,12 @@
       <c r="N34" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
+      <c r="O34" s="3">
+        <v>260</v>
+      </c>
+      <c r="P34" s="3">
+        <v>231</v>
+      </c>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>

--- a/ReviewSchedule.xlsx
+++ b/ReviewSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanyonghao/IdeaProjects/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA9B1AF-4284-9241-BE33-312D0BDAF80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29872C19-FDAF-8B45-9082-A534EE758336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="1400" windowWidth="24740" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -779,7 +779,7 @@
   <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2191,8 +2191,12 @@
       <c r="P34" s="3">
         <v>231</v>
       </c>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
+      <c r="Q34" s="3">
+        <v>421</v>
+      </c>
+      <c r="R34" s="3">
+        <v>208</v>
+      </c>
       <c r="S34" s="3"/>
     </row>
     <row r="35" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">

--- a/ReviewSchedule.xlsx
+++ b/ReviewSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanyonghao/IdeaProjects/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29872C19-FDAF-8B45-9082-A534EE758336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF9F7A8-FA92-BB43-A941-124D7F7E34EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="1400" windowWidth="24740" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27500" yWindow="-1020" windowWidth="24740" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -779,7 +779,7 @@
   <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2197,7 +2197,9 @@
       <c r="R34" s="3">
         <v>208</v>
       </c>
-      <c r="S34" s="3"/>
+      <c r="S34" s="3">
+        <v>187</v>
+      </c>
     </row>
     <row r="35" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="9">
@@ -2224,9 +2226,15 @@
       <c r="N35" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
+      <c r="O35" s="3">
+        <v>1044</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1062</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>318</v>
+      </c>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>

--- a/ReviewSchedule.xlsx
+++ b/ReviewSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanyonghao/IdeaProjects/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF9F7A8-FA92-BB43-A941-124D7F7E34EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4B1E20-70B5-4949-9EE1-1F01BA1D56E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27500" yWindow="-1020" windowWidth="24740" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="-4200" windowWidth="24740" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -778,8 +778,8 @@
   </sheetPr>
   <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/ReviewSchedule.xlsx
+++ b/ReviewSchedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanyonghao/IdeaProjects/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4B1E20-70B5-4949-9EE1-1F01BA1D56E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0AF4CA-8797-F64B-B895-D2251EF2BFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="-4200" windowWidth="24740" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>DATE</t>
   </si>
@@ -151,6 +151,21 @@
   </si>
   <si>
     <t>Chapter 35</t>
+  </si>
+  <si>
+    <t>Chapter 36</t>
+  </si>
+  <si>
+    <t>Chapter 37</t>
+  </si>
+  <si>
+    <t>Chapter 38</t>
+  </si>
+  <si>
+    <t>Chapter 39</t>
+  </si>
+  <si>
+    <t>Chapter 40</t>
   </si>
 </sst>
 </file>
@@ -778,8 +793,8 @@
   </sheetPr>
   <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2235,8 +2250,12 @@
       <c r="Q35" s="3">
         <v>318</v>
       </c>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
+      <c r="R35" s="3">
+        <v>498</v>
+      </c>
+      <c r="S35" s="3">
+        <v>54</v>
+      </c>
     </row>
     <row r="36" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="9">
@@ -2260,11 +2279,24 @@
       <c r="J36" s="30"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
+      <c r="N36" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="O36" s="3">
+        <v>28</v>
+      </c>
+      <c r="P36" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>561</v>
+      </c>
+      <c r="R36" s="3">
+        <v>209</v>
+      </c>
+      <c r="S36" s="3">
+        <v>189</v>
+      </c>
     </row>
     <row r="37" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="9">
@@ -2288,11 +2320,24 @@
       <c r="J37" s="30"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
+      <c r="N37" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="O37" s="3">
+        <v>151</v>
+      </c>
+      <c r="P37" s="3">
+        <v>557</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>62</v>
+      </c>
+      <c r="R37" s="3">
+        <v>63</v>
+      </c>
+      <c r="S37" s="3">
+        <v>64</v>
+      </c>
     </row>
     <row r="38" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="9">
@@ -2316,11 +2361,14 @@
       <c r="J38" s="30"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
+      <c r="N38" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
     </row>
     <row r="39" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="9">
@@ -2344,11 +2392,14 @@
       <c r="J39" s="30"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
+      <c r="N39" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
     </row>
     <row r="40" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="9">
@@ -2370,11 +2421,14 @@
       <c r="J40" s="30"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
+      <c r="N40" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
     </row>
     <row r="41" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="9">
